--- a/InputData/trans/BVTStL/Boolean Veh Types Subject to LCFS.xlsx
+++ b/InputData/trans/BVTStL/Boolean Veh Types Subject to LCFS.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\trans\BVTStL\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="23955" windowHeight="11325"/>
   </bookViews>
@@ -10,12 +15,12 @@
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="BVTStL" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Source:</t>
   </si>
@@ -88,11 +93,14 @@
   <si>
     <t>BVTStL Boolean Vehicle Types Subject to LCFS</t>
   </si>
+  <si>
+    <t>(Boolean)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -149,6 +157,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -196,7 +207,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -231,7 +242,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -542,7 +553,9 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -552,6 +565,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
       <c r="B1" s="3" t="s">
         <v>8</v>
       </c>
@@ -883,13 +899,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B64E4D9-F03E-4C3E-B59F-F6F7EECCF964}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{424F1C00-136F-4E82-A436-90B22E889E44}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41146564-E031-469E-843F-8163E8696C8A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{475DCF99-058F-405F-8EE4-FB4431D90CB9}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{960D787B-4060-4706-B67B-46C342255E34}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FA68244-237F-4095-9545-AFE3588FE6BB}"/>
 </file>
--- a/InputData/trans/BVTStL/Boolean Veh Types Subject to LCFS.xlsx
+++ b/InputData/trans/BVTStL/Boolean Veh Types Subject to LCFS.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\trans\BVTStL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mengpin.ge\World Resources Institute\TRAC City - HK 2050 is now\EPS HK 2.0\eps-hongkong-develop\InputData\trans\BVTStL\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_FC22DAAEF10D169DC5BF7113C552BB05F0038F7C" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="23955" windowHeight="11325"/>
+    <workbookView xWindow="12720" yWindow="2310" windowWidth="15645" windowHeight="12825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -100,7 +101,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -240,6 +241,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -275,6 +293,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -450,10 +485,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -547,7 +584,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -647,6 +684,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010095990DC6317597479C114DD4E6AB1F33" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="00c0eb7d4c43453177323eb1ac58d7e7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="7889d872-e2a2-4afb-87bc-97561eced75f" xmlns:ns3="c9df191c-55f2-496b-9838-9a5abe4742ad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b5fe72540fcc493259a136614ad94e00" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -880,32 +935,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{424F1C00-136F-4E82-A436-90B22E889E44}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FA68244-237F-4095-9545-AFE3588FE6BB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{475DCF99-058F-405F-8EE4-FB4431D90CB9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{475DCF99-058F-405F-8EE4-FB4431D90CB9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FA68244-237F-4095-9545-AFE3588FE6BB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{424F1C00-136F-4E82-A436-90B22E889E44}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="7889d872-e2a2-4afb-87bc-97561eced75f"/>
+    <ds:schemaRef ds:uri="c9df191c-55f2-496b-9838-9a5abe4742ad"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/InputData/trans/BVTStL/Boolean Veh Types Subject to LCFS.xlsx
+++ b/InputData/trans/BVTStL/Boolean Veh Types Subject to LCFS.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mengpin.ge\World Resources Institute\TRAC City - HK 2050 is now\EPS HK 2.0\eps-hongkong-develop\InputData\trans\BVTStL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-us\InputData\trans\BVTStL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_FC22DAAEF10D169DC5BF7113C552BB05F0038F7C" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12720" yWindow="2310" windowWidth="15645" windowHeight="12825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="23955" windowHeight="11325"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Source:</t>
   </si>
@@ -77,31 +76,19 @@
     <t>Page 15</t>
   </si>
   <si>
-    <t>Based on the California LCFS, we choose to exempt aircraft,</t>
-  </si>
-  <si>
-    <t>rail, and ship modes.  All three on-road modes (LDVs, HDVs,</t>
-  </si>
-  <si>
-    <t>motorbikes) are considered to be subject to the LCFS.</t>
-  </si>
-  <si>
-    <t>(California appears to include some ships and rail under</t>
-  </si>
-  <si>
-    <t>their LCFS, but we do not do so here.)</t>
-  </si>
-  <si>
     <t>BVTStL Boolean Vehicle Types Subject to LCFS</t>
   </si>
   <si>
     <t>(Boolean)</t>
+  </si>
+  <si>
+    <t>Based on the California LCFS, we choose to exempt aircraft.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -241,23 +228,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -293,23 +263,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -485,21 +438,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -507,74 +460,54 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" s="2">
         <v>2015</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -584,26 +517,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.1328125" customWidth="1"/>
+    <col min="2" max="2" width="15.1328125" customWidth="1"/>
+    <col min="3" max="3" width="13.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>8</v>
@@ -612,7 +545,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -623,7 +556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -634,7 +567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -645,29 +578,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -681,294 +614,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010095990DC6317597479C114DD4E6AB1F33" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="00c0eb7d4c43453177323eb1ac58d7e7">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="7889d872-e2a2-4afb-87bc-97561eced75f" xmlns:ns3="c9df191c-55f2-496b-9838-9a5abe4742ad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b5fe72540fcc493259a136614ad94e00" ns1:_="" ns2:_="" ns3:_="">
-    <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
-    <xsd:import namespace="7889d872-e2a2-4afb-87bc-97561eced75f"/>
-    <xsd:import namespace="c9df191c-55f2-496b-9838-9a5abe4742ad"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns2:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyProperties" minOccurs="0"/>
-                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyUIAction" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="http://schemas.microsoft.com/sharepoint/v3" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="_ip_UnifiedCompliancePolicyProperties" ma:index="18" nillable="true" ma:displayName="Unified Compliance Policy Properties" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyProperties">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="_ip_UnifiedCompliancePolicyUIAction" ma:index="19" nillable="true" ma:displayName="Unified Compliance Policy UI Action" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyUIAction">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="7889d872-e2a2-4afb-87bc-97561eced75f" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="8" nillable="true" ma:displayName="Shared With" ma:description="" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="9" nillable="true" ma:displayName="Shared With Details" ma:description="" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="c9df191c-55f2-496b-9838-9a5abe4742ad" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="10" nillable="true" ma:displayName="MediaServiceMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="11" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:description="" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="13" nillable="true" ma:displayName="MediaServiceAutoTags" ma:description="" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="14" nillable="true" ma:displayName="MediaServiceLocation" ma:description="" ma:internalName="MediaServiceLocation" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="15" nillable="true" ma:displayName="MediaServiceOCR" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="20" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="21" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FA68244-237F-4095-9545-AFE3588FE6BB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{475DCF99-058F-405F-8EE4-FB4431D90CB9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{424F1C00-136F-4E82-A436-90B22E889E44}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="7889d872-e2a2-4afb-87bc-97561eced75f"/>
-    <ds:schemaRef ds:uri="c9df191c-55f2-496b-9838-9a5abe4742ad"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>